--- a/data/trans_dic/P74B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03855622872920721</v>
+        <v>0.0357382077205767</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04801432881731741</v>
+        <v>0.04633658295237916</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09162139100284263</v>
+        <v>0.09813901186679146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6732696630406703</v>
+        <v>0.66222231243045</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3389805264459993</v>
+        <v>0.3536060590808787</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3744218067894347</v>
+        <v>0.3754443372205306</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1198102534358267</v>
+        <v>0.1179503143414627</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1202816916844122</v>
+        <v>0.1275113447713203</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1887052229024022</v>
+        <v>0.1832762392817898</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1244980669312088</v>
+        <v>0.1260130034400745</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1597714289914159</v>
+        <v>0.1630010479802403</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2295473964925971</v>
+        <v>0.2250015701895381</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9606904600451251</v>
+        <v>0.9603051359976085</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6733073869993317</v>
+        <v>0.6850673669529809</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6885873047320817</v>
+        <v>0.6870777970744751</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2332656208170121</v>
+        <v>0.2216106600149193</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2412277850104224</v>
+        <v>0.2441316943246039</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3220422205750829</v>
+        <v>0.3164758796121475</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0329187154894556</v>
+        <v>0.02861897827070245</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07011015755746355</v>
+        <v>0.06928418039071789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09338820830284994</v>
+        <v>0.0925122837062656</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4524020912646937</v>
+        <v>0.4457446928181186</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4092541288830453</v>
+        <v>0.3907503352064917</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2537234482006657</v>
+        <v>0.2711377828457973</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08761099776793346</v>
+        <v>0.09417153657066435</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1530523304210305</v>
+        <v>0.1572368206684318</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1453874351711905</v>
+        <v>0.1428036973046837</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1203499931036462</v>
+        <v>0.1159295634346779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1826282124487885</v>
+        <v>0.1853133639225984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2030907701105296</v>
+        <v>0.2037882416293774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9013435236165973</v>
+        <v>0.9032974699081496</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7230809452354443</v>
+        <v>0.7070708035143785</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5689835054881027</v>
+        <v>0.5849153853345608</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2001013656835322</v>
+        <v>0.2059446057807838</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2862751221970785</v>
+        <v>0.2843684538472245</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2665283569051717</v>
+        <v>0.2615857135152144</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02145186810154826</v>
+        <v>0.02129371301940993</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09084216914530528</v>
+        <v>0.09509732366375027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09122126220537367</v>
+        <v>0.0940969896157253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6039971279881812</v>
+        <v>0.6192921353463011</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.522949989069173</v>
+        <v>0.5148352914415838</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5325301723831033</v>
+        <v>0.5200229984968731</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07764685744484577</v>
+        <v>0.07447763196535404</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1744280647506194</v>
+        <v>0.177298610115152</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1645603096485841</v>
+        <v>0.1573461622072399</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06767643524645664</v>
+        <v>0.06639455256933419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.179045267814247</v>
+        <v>0.1754854534988947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1719536317632657</v>
+        <v>0.1725688525641539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9039779024359799</v>
+        <v>0.9251655016338359</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7562515392038919</v>
+        <v>0.747904209911359</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8084077424580632</v>
+        <v>0.798863794703222</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1453421190543749</v>
+        <v>0.1437294112741962</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2670122646908481</v>
+        <v>0.2675048945907993</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2632974569700252</v>
+        <v>0.2556495892884412</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07179534688908103</v>
+        <v>0.07171976991690306</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09209855171479783</v>
+        <v>0.09166616332884714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08148710928834303</v>
+        <v>0.08306749878004462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6709997508809942</v>
+        <v>0.6738099219088757</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4150673090133218</v>
+        <v>0.409756505808492</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4563473447876871</v>
+        <v>0.4572428395270963</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.163018556976202</v>
+        <v>0.1611308956145789</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1753260970485033</v>
+        <v>0.1725063670655283</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1771236624514641</v>
+        <v>0.1799911067288668</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1160590472222175</v>
+        <v>0.1137112351372763</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.149725318088624</v>
+        <v>0.1517130217700758</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1366509133621302</v>
+        <v>0.1341131996618261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8281344092272667</v>
+        <v>0.8365156411447534</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5782536104327436</v>
+        <v>0.5717041993881766</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6193207114606417</v>
+        <v>0.6219077594239558</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2188454053989919</v>
+        <v>0.2184821459090389</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2384348356502671</v>
+        <v>0.2376251150541821</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2423730686555608</v>
+        <v>0.2431015309061098</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0446662378735696</v>
+        <v>0.0452700071551743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1256169575423988</v>
+        <v>0.1255633387211053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09833076675715816</v>
+        <v>0.1009144146676112</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6503355537080716</v>
+        <v>0.657312428222808</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5478265625382099</v>
+        <v>0.5513228977383338</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4488220257880901</v>
+        <v>0.4499328399072386</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2958986596397759</v>
+        <v>0.2983525567814756</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3735162800536367</v>
+        <v>0.3778137448485146</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2788587329641286</v>
+        <v>0.2772288472781175</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1314374282906992</v>
+        <v>0.125319271391793</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2305979794554691</v>
+        <v>0.2338721741754375</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1897055207032922</v>
+        <v>0.1896600056697695</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8244443186424261</v>
+        <v>0.8262883659432664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6686652098333395</v>
+        <v>0.670534192619096</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5778114479023208</v>
+        <v>0.582300269049549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.415902223527736</v>
+        <v>0.415646525331379</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4660374612277277</v>
+        <v>0.4702697452630754</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3615219933457908</v>
+        <v>0.3640516666766547</v>
       </c>
     </row>
     <row r="19">
@@ -1223,22 +1223,22 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.8471009103732476</v>
+        <v>0.8503317886884598</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8235099473626272</v>
+        <v>0.8232969430142122</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8029236532505795</v>
+        <v>0.8102279341622133</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8503473501821056</v>
+        <v>0.8523661916363504</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8185902422316707</v>
+        <v>0.8189341073516988</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7970712438731933</v>
+        <v>0.7947074324258441</v>
       </c>
     </row>
     <row r="21">
@@ -1252,22 +1252,22 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.9201704619036041</v>
+        <v>0.9223781166848456</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8961336063440425</v>
+        <v>0.9008922162910842</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8850593792566371</v>
+        <v>0.8871128566703474</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9211944837045364</v>
+        <v>0.9224730742834133</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8939669434257866</v>
+        <v>0.8982530610287369</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.873404778545982</v>
+        <v>0.8747561586689171</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06316596294578324</v>
+        <v>0.06170635215121233</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.106779796204086</v>
+        <v>0.1066744549480229</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6469947723587129</v>
+        <v>0.6477079036000364</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.626303799847133</v>
+        <v>0.6274252435728794</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2839297524538583</v>
+        <v>0.2856560819088627</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3264795666924452</v>
+        <v>0.3273513266500563</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3158996021968037</v>
+        <v>0.31687554235082</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0917499514714339</v>
+        <v>0.08943316991574403</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1428540589269578</v>
+        <v>0.1436293168911422</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7114582080958485</v>
+        <v>0.7113620913456928</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6912698705070334</v>
+        <v>0.6907906886948779</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3244116659756563</v>
+        <v>0.3229486351053823</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.367891398315754</v>
+        <v>0.3677942785516591</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3586812603918197</v>
+        <v>0.3570740973641137</v>
       </c>
     </row>
     <row r="25">
@@ -1607,31 +1607,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6770</v>
+        <v>6275</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7523</v>
+        <v>7260</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11927</v>
+        <v>12775</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16607</v>
+        <v>16334</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14367</v>
+        <v>14987</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16107</v>
+        <v>16151</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23991</v>
+        <v>23619</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23943</v>
+        <v>25382</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32682</v>
+        <v>31742</v>
       </c>
     </row>
     <row r="7">
@@ -1642,31 +1642,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21859</v>
+        <v>22125</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25032</v>
+        <v>25538</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29881</v>
+        <v>29289</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23696</v>
+        <v>23687</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28537</v>
+        <v>29036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29622</v>
+        <v>29557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46710</v>
+        <v>44376</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>48018</v>
+        <v>48596</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55775</v>
+        <v>54811</v>
       </c>
     </row>
     <row r="8">
@@ -1751,31 +1751,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5054</v>
+        <v>4394</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11754</v>
+        <v>11615</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14678</v>
+        <v>14540</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9149</v>
+        <v>9014</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18669</v>
+        <v>17824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10643</v>
+        <v>11373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15222</v>
+        <v>16362</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32640</v>
+        <v>33532</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28949</v>
+        <v>28435</v>
       </c>
     </row>
     <row r="11">
@@ -1786,31 +1786,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18476</v>
+        <v>17798</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30617</v>
+        <v>31067</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31920</v>
+        <v>32030</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18228</v>
+        <v>18267</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32984</v>
+        <v>32254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23867</v>
+        <v>24535</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34766</v>
+        <v>35782</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>61051</v>
+        <v>60644</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53071</v>
+        <v>52086</v>
       </c>
     </row>
     <row r="12">
@@ -1895,31 +1895,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6188</v>
+        <v>6142</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28905</v>
+        <v>30259</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24417</v>
+        <v>25187</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16967</v>
+        <v>17397</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>34080</v>
+        <v>33551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24833</v>
+        <v>24250</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24578</v>
+        <v>23575</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66868</v>
+        <v>67968</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51721</v>
+        <v>49454</v>
       </c>
     </row>
     <row r="15">
@@ -1930,31 +1930,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19521</v>
+        <v>19151</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56970</v>
+        <v>55837</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46026</v>
+        <v>46191</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25395</v>
+        <v>25990</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>49283</v>
+        <v>48739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37698</v>
+        <v>37253</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46006</v>
+        <v>45495</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>102360</v>
+        <v>102549</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>82754</v>
+        <v>80350</v>
       </c>
     </row>
     <row r="16">
@@ -2039,31 +2039,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45739</v>
+        <v>45691</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48672</v>
+        <v>48443</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>43601</v>
+        <v>44447</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74702</v>
+        <v>75015</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>66460</v>
+        <v>65609</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>73962</v>
+        <v>74107</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>122003</v>
+        <v>120591</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>120728</v>
+        <v>118786</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>123480</v>
+        <v>125479</v>
       </c>
     </row>
     <row r="19">
@@ -2074,31 +2074,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73938</v>
+        <v>72442</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>79126</v>
+        <v>80176</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>73117</v>
+        <v>71759</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>92195</v>
+        <v>93128</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>92589</v>
+        <v>91540</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>100376</v>
+        <v>100795</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>163784</v>
+        <v>163512</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>164184</v>
+        <v>163626</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>168968</v>
+        <v>169476</v>
       </c>
     </row>
     <row r="20">
@@ -2183,31 +2183,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6984</v>
+        <v>7078</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25516</v>
+        <v>25505</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25609</v>
+        <v>26282</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>70405</v>
+        <v>71160</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>144472</v>
+        <v>145394</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>107444</v>
+        <v>107710</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>78300</v>
+        <v>78950</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>174373</v>
+        <v>176379</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>139383</v>
+        <v>138568</v>
       </c>
     </row>
     <row r="23">
@@ -2218,31 +2218,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20552</v>
+        <v>19595</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>46840</v>
+        <v>47505</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>49407</v>
+        <v>49395</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>89254</v>
+        <v>89453</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>176339</v>
+        <v>176832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>138323</v>
+        <v>139398</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>110056</v>
+        <v>109988</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>217565</v>
+        <v>219541</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>180701</v>
+        <v>181965</v>
       </c>
     </row>
     <row r="24">
@@ -2330,22 +2330,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>270655</v>
+        <v>271687</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>277940</v>
+        <v>277868</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>287390</v>
+        <v>290005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>273235</v>
+        <v>273884</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>277302</v>
+        <v>277419</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>290229</v>
+        <v>289368</v>
       </c>
     </row>
     <row r="27">
@@ -2359,22 +2359,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>294001</v>
+        <v>294706</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>302450</v>
+        <v>304057</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>316789</v>
+        <v>317524</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>296000</v>
+        <v>296411</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>302837</v>
+        <v>304289</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>318023</v>
+        <v>318515</v>
       </c>
     </row>
     <row r="28">
@@ -2459,31 +2459,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>89240</v>
+        <v>87178</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>144869</v>
+        <v>144726</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>591683</v>
+        <v>592335</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>558033</v>
+        <v>559032</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>574919</v>
+        <v>578415</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>747592</v>
+        <v>749588</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>710048</v>
+        <v>712241</v>
       </c>
     </row>
     <row r="31">
@@ -2494,31 +2494,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>129623</v>
+        <v>126350</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>193811</v>
+        <v>194863</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>650636</v>
+        <v>650548</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>615917</v>
+        <v>615490</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>656890</v>
+        <v>653927</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>842419</v>
+        <v>842197</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>806208</v>
+        <v>802596</v>
       </c>
     </row>
     <row r="32">
